--- a/date_de_prezis.xlsx
+++ b/date_de_prezis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\date\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo_github\cercetare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB06C909-7501-4BF9-B69B-AFFE042173E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46CBDD0-4CE4-4B47-A3E5-A361BDC7C4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31710" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>date</t>
   </si>
@@ -199,6 +199,27 @@
   </si>
   <si>
     <t>2025-01-06T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2025-01-07T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2025-01-08T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2025-01-09T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2025-01-10T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2025-01-11T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2025-01-12T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2025-01-13T00:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -523,13 +544,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BE6" sqref="BE6"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -855,6 +880,1302 @@
       <c r="AX2">
         <v>90</v>
       </c>
+      <c r="AY2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AZ2">
+        <v>17</v>
+      </c>
+      <c r="BA2">
+        <v>15</v>
+      </c>
+      <c r="BB2">
+        <v>11</v>
+      </c>
+      <c r="BC2">
+        <v>15</v>
+      </c>
+      <c r="BD2">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="BE2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3">
+        <v>400</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>84</v>
+      </c>
+      <c r="I3" s="1">
+        <v>68.59</v>
+      </c>
+      <c r="J3">
+        <v>82.67</v>
+      </c>
+      <c r="K3">
+        <v>77.64</v>
+      </c>
+      <c r="L3">
+        <v>75.31</v>
+      </c>
+      <c r="M3">
+        <v>81</v>
+      </c>
+      <c r="N3">
+        <v>4.3550000000000004</v>
+      </c>
+      <c r="O3">
+        <v>245</v>
+      </c>
+      <c r="P3">
+        <v>100567</v>
+      </c>
+      <c r="Q3">
+        <v>100887</v>
+      </c>
+      <c r="R3">
+        <v>100750</v>
+      </c>
+      <c r="S3">
+        <v>100698</v>
+      </c>
+      <c r="T3">
+        <v>100806</v>
+      </c>
+      <c r="U3">
+        <v>82.42</v>
+      </c>
+      <c r="V3">
+        <v>201</v>
+      </c>
+      <c r="W3">
+        <v>1.42</v>
+      </c>
+      <c r="X3">
+        <v>9.69</v>
+      </c>
+      <c r="Y3">
+        <v>6.32</v>
+      </c>
+      <c r="Z3">
+        <v>2.4</v>
+      </c>
+      <c r="AA3">
+        <v>7.21</v>
+      </c>
+      <c r="AB3">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>228</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>84</v>
+      </c>
+      <c r="AK3">
+        <v>10</v>
+      </c>
+      <c r="AL3">
+        <v>26</v>
+      </c>
+      <c r="AM3">
+        <v>18</v>
+      </c>
+      <c r="AN3">
+        <v>11</v>
+      </c>
+      <c r="AO3">
+        <v>22</v>
+      </c>
+      <c r="AP3">
+        <v>5.3650000000000002</v>
+      </c>
+      <c r="AQ3">
+        <v>92</v>
+      </c>
+      <c r="AR3">
+        <v>14</v>
+      </c>
+      <c r="AS3">
+        <v>37</v>
+      </c>
+      <c r="AT3">
+        <v>27</v>
+      </c>
+      <c r="AU3">
+        <v>16</v>
+      </c>
+      <c r="AV3">
+        <v>32</v>
+      </c>
+      <c r="AW3">
+        <v>7.3470000000000004</v>
+      </c>
+      <c r="AX3">
+        <v>96</v>
+      </c>
+      <c r="AY3">
+        <v>13</v>
+      </c>
+      <c r="AZ3">
+        <v>33</v>
+      </c>
+      <c r="BA3">
+        <v>24</v>
+      </c>
+      <c r="BB3">
+        <v>14</v>
+      </c>
+      <c r="BC3">
+        <v>29</v>
+      </c>
+      <c r="BD3">
+        <v>6.5919999999999996</v>
+      </c>
+      <c r="BE3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
+      </c>
+      <c r="F4">
+        <v>400</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>64.09</v>
+      </c>
+      <c r="J4">
+        <v>85.6</v>
+      </c>
+      <c r="K4">
+        <v>71.02</v>
+      </c>
+      <c r="L4">
+        <v>69.31</v>
+      </c>
+      <c r="M4">
+        <v>82.43</v>
+      </c>
+      <c r="N4">
+        <v>6.76</v>
+      </c>
+      <c r="O4">
+        <v>232</v>
+      </c>
+      <c r="P4">
+        <v>100533</v>
+      </c>
+      <c r="Q4">
+        <v>100818</v>
+      </c>
+      <c r="R4">
+        <v>100635</v>
+      </c>
+      <c r="S4">
+        <v>100590</v>
+      </c>
+      <c r="T4">
+        <v>100734</v>
+      </c>
+      <c r="U4">
+        <v>85.730999999999995</v>
+      </c>
+      <c r="V4">
+        <v>227</v>
+      </c>
+      <c r="W4">
+        <v>3.37</v>
+      </c>
+      <c r="X4">
+        <v>14.19</v>
+      </c>
+      <c r="Y4">
+        <v>11.05</v>
+      </c>
+      <c r="Z4">
+        <v>4.46</v>
+      </c>
+      <c r="AA4">
+        <v>12.45</v>
+      </c>
+      <c r="AB4">
+        <v>3.7280000000000002</v>
+      </c>
+      <c r="AC4">
+        <v>239</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>80</v>
+      </c>
+      <c r="AK4">
+        <v>5</v>
+      </c>
+      <c r="AL4">
+        <v>25</v>
+      </c>
+      <c r="AM4">
+        <v>17</v>
+      </c>
+      <c r="AN4">
+        <v>14</v>
+      </c>
+      <c r="AO4">
+        <v>20</v>
+      </c>
+      <c r="AP4">
+        <v>5.1210000000000004</v>
+      </c>
+      <c r="AQ4">
+        <v>90</v>
+      </c>
+      <c r="AR4">
+        <v>7</v>
+      </c>
+      <c r="AS4">
+        <v>36</v>
+      </c>
+      <c r="AT4">
+        <v>23</v>
+      </c>
+      <c r="AU4">
+        <v>19</v>
+      </c>
+      <c r="AV4">
+        <v>29</v>
+      </c>
+      <c r="AW4">
+        <v>7.2009999999999996</v>
+      </c>
+      <c r="AX4">
+        <v>91</v>
+      </c>
+      <c r="AY4">
+        <v>7</v>
+      </c>
+      <c r="AZ4">
+        <v>32</v>
+      </c>
+      <c r="BA4">
+        <v>21</v>
+      </c>
+      <c r="BB4">
+        <v>17</v>
+      </c>
+      <c r="BC4">
+        <v>26</v>
+      </c>
+      <c r="BD4">
+        <v>6.4459999999999997</v>
+      </c>
+      <c r="BE4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5">
+        <v>400</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>81</v>
+      </c>
+      <c r="I5">
+        <v>57.47</v>
+      </c>
+      <c r="J5">
+        <v>85.11</v>
+      </c>
+      <c r="K5">
+        <v>73.52</v>
+      </c>
+      <c r="L5">
+        <v>67.81</v>
+      </c>
+      <c r="M5">
+        <v>79.930000000000007</v>
+      </c>
+      <c r="N5">
+        <v>8.0830000000000002</v>
+      </c>
+      <c r="O5">
+        <v>241</v>
+      </c>
+      <c r="P5">
+        <v>100483</v>
+      </c>
+      <c r="Q5">
+        <v>101121</v>
+      </c>
+      <c r="R5">
+        <v>100834</v>
+      </c>
+      <c r="S5">
+        <v>100695</v>
+      </c>
+      <c r="T5">
+        <v>101026</v>
+      </c>
+      <c r="U5">
+        <v>180.42500000000001</v>
+      </c>
+      <c r="V5">
+        <v>244</v>
+      </c>
+      <c r="W5">
+        <v>4.78</v>
+      </c>
+      <c r="X5">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>8.59</v>
+      </c>
+      <c r="Z5">
+        <v>6.7</v>
+      </c>
+      <c r="AA5">
+        <v>12.01</v>
+      </c>
+      <c r="AB5">
+        <v>3.7490000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>249</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>81</v>
+      </c>
+      <c r="AK5">
+        <v>4</v>
+      </c>
+      <c r="AL5">
+        <v>27</v>
+      </c>
+      <c r="AM5">
+        <v>12.5</v>
+      </c>
+      <c r="AN5">
+        <v>8</v>
+      </c>
+      <c r="AO5">
+        <v>18.5</v>
+      </c>
+      <c r="AP5">
+        <v>6.98</v>
+      </c>
+      <c r="AQ5">
+        <v>92</v>
+      </c>
+      <c r="AR5">
+        <v>5</v>
+      </c>
+      <c r="AS5">
+        <v>38</v>
+      </c>
+      <c r="AT5">
+        <v>19</v>
+      </c>
+      <c r="AU5">
+        <v>13</v>
+      </c>
+      <c r="AV5">
+        <v>27.5</v>
+      </c>
+      <c r="AW5">
+        <v>9.7810000000000006</v>
+      </c>
+      <c r="AX5">
+        <v>101</v>
+      </c>
+      <c r="AY5">
+        <v>5</v>
+      </c>
+      <c r="AZ5">
+        <v>33</v>
+      </c>
+      <c r="BA5">
+        <v>16</v>
+      </c>
+      <c r="BB5">
+        <v>12</v>
+      </c>
+      <c r="BC5">
+        <v>24</v>
+      </c>
+      <c r="BD5">
+        <v>8.3160000000000007</v>
+      </c>
+      <c r="BE5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>465</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6">
+        <v>9.7690000000000001</v>
+      </c>
+      <c r="H6">
+        <v>94</v>
+      </c>
+      <c r="I6">
+        <v>75.47</v>
+      </c>
+      <c r="J6">
+        <v>88.27</v>
+      </c>
+      <c r="K6">
+        <v>85.22</v>
+      </c>
+      <c r="L6">
+        <v>78.7</v>
+      </c>
+      <c r="M6">
+        <v>87.23</v>
+      </c>
+      <c r="N6">
+        <v>4.2539999999999996</v>
+      </c>
+      <c r="O6">
+        <v>245</v>
+      </c>
+      <c r="P6">
+        <v>99965</v>
+      </c>
+      <c r="Q6">
+        <v>100894</v>
+      </c>
+      <c r="R6">
+        <v>100322</v>
+      </c>
+      <c r="S6">
+        <v>100168</v>
+      </c>
+      <c r="T6">
+        <v>100644</v>
+      </c>
+      <c r="U6">
+        <v>270.52199999999999</v>
+      </c>
+      <c r="V6">
+        <v>232</v>
+      </c>
+      <c r="W6">
+        <v>1.34</v>
+      </c>
+      <c r="X6">
+        <v>11.61</v>
+      </c>
+      <c r="Y6">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Z6">
+        <v>3.01</v>
+      </c>
+      <c r="AA6">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="AB6">
+        <v>3.5489999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>251</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>85</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>19</v>
+      </c>
+      <c r="AM6">
+        <v>14</v>
+      </c>
+      <c r="AN6">
+        <v>11</v>
+      </c>
+      <c r="AO6">
+        <v>15</v>
+      </c>
+      <c r="AP6">
+        <v>5.38</v>
+      </c>
+      <c r="AQ6">
+        <v>92</v>
+      </c>
+      <c r="AR6">
+        <v>3</v>
+      </c>
+      <c r="AS6">
+        <v>27</v>
+      </c>
+      <c r="AT6">
+        <v>20</v>
+      </c>
+      <c r="AU6">
+        <v>13</v>
+      </c>
+      <c r="AV6">
+        <v>21.5</v>
+      </c>
+      <c r="AW6">
+        <v>7.5979999999999999</v>
+      </c>
+      <c r="AX6">
+        <v>96</v>
+      </c>
+      <c r="AY6">
+        <v>3</v>
+      </c>
+      <c r="AZ6">
+        <v>24</v>
+      </c>
+      <c r="BA6">
+        <v>18</v>
+      </c>
+      <c r="BB6">
+        <v>13</v>
+      </c>
+      <c r="BC6">
+        <v>19</v>
+      </c>
+      <c r="BD6">
+        <v>6.702</v>
+      </c>
+      <c r="BE6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7">
+        <v>406</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>400</v>
+      </c>
+      <c r="F7">
+        <v>400</v>
+      </c>
+      <c r="G7">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="H7">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>56.6</v>
+      </c>
+      <c r="J7">
+        <v>86.1</v>
+      </c>
+      <c r="K7">
+        <v>71.84</v>
+      </c>
+      <c r="L7">
+        <v>62.24</v>
+      </c>
+      <c r="M7">
+        <v>83.55</v>
+      </c>
+      <c r="N7">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="O7">
+        <v>248</v>
+      </c>
+      <c r="P7">
+        <v>100895</v>
+      </c>
+      <c r="Q7">
+        <v>101319</v>
+      </c>
+      <c r="R7">
+        <v>101110</v>
+      </c>
+      <c r="S7">
+        <v>101064</v>
+      </c>
+      <c r="T7">
+        <v>101198</v>
+      </c>
+      <c r="U7">
+        <v>117.325</v>
+      </c>
+      <c r="V7">
+        <v>239</v>
+      </c>
+      <c r="W7">
+        <v>-1.8</v>
+      </c>
+      <c r="X7">
+        <v>6.64</v>
+      </c>
+      <c r="Y7">
+        <v>1.8</v>
+      </c>
+      <c r="Z7">
+        <v>0.62</v>
+      </c>
+      <c r="AA7">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="AB7">
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>251</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>84</v>
+      </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
+      <c r="AL7">
+        <v>22</v>
+      </c>
+      <c r="AM7">
+        <v>6.5</v>
+      </c>
+      <c r="AN7">
+        <v>4</v>
+      </c>
+      <c r="AO7">
+        <v>15</v>
+      </c>
+      <c r="AP7">
+        <v>6.3019999999999996</v>
+      </c>
+      <c r="AQ7">
+        <v>98</v>
+      </c>
+      <c r="AR7">
+        <v>3</v>
+      </c>
+      <c r="AS7">
+        <v>31</v>
+      </c>
+      <c r="AT7">
+        <v>12.5</v>
+      </c>
+      <c r="AU7">
+        <v>6</v>
+      </c>
+      <c r="AV7">
+        <v>22.5</v>
+      </c>
+      <c r="AW7">
+        <v>8.673</v>
+      </c>
+      <c r="AX7">
+        <v>104</v>
+      </c>
+      <c r="AY7">
+        <v>3</v>
+      </c>
+      <c r="AZ7">
+        <v>28</v>
+      </c>
+      <c r="BA7">
+        <v>11</v>
+      </c>
+      <c r="BB7">
+        <v>6</v>
+      </c>
+      <c r="BC7">
+        <v>19</v>
+      </c>
+      <c r="BD7">
+        <v>7.609</v>
+      </c>
+      <c r="BE7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>355</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="F8">
+        <v>400</v>
+      </c>
+      <c r="G8">
+        <v>8.7260000000000009</v>
+      </c>
+      <c r="H8">
+        <v>98</v>
+      </c>
+      <c r="I8">
+        <v>53.6</v>
+      </c>
+      <c r="J8">
+        <v>75.77</v>
+      </c>
+      <c r="K8">
+        <v>63.46</v>
+      </c>
+      <c r="L8">
+        <v>57.6</v>
+      </c>
+      <c r="M8">
+        <v>67.03</v>
+      </c>
+      <c r="N8">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="O8">
+        <v>258</v>
+      </c>
+      <c r="P8">
+        <v>101289</v>
+      </c>
+      <c r="Q8">
+        <v>101988</v>
+      </c>
+      <c r="R8">
+        <v>101457</v>
+      </c>
+      <c r="S8">
+        <v>101399</v>
+      </c>
+      <c r="T8">
+        <v>101719</v>
+      </c>
+      <c r="U8">
+        <v>220.46700000000001</v>
+      </c>
+      <c r="V8">
+        <v>235</v>
+      </c>
+      <c r="W8">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="X8">
+        <v>6.46</v>
+      </c>
+      <c r="Y8">
+        <v>2.09</v>
+      </c>
+      <c r="Z8">
+        <v>0.09</v>
+      </c>
+      <c r="AA8">
+        <v>4.16</v>
+      </c>
+      <c r="AB8">
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="AC8">
+        <v>267</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>86</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AL8">
+        <v>16</v>
+      </c>
+      <c r="AM8">
+        <v>5</v>
+      </c>
+      <c r="AN8">
+        <v>4</v>
+      </c>
+      <c r="AO8">
+        <v>10</v>
+      </c>
+      <c r="AP8">
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="AQ8">
+        <v>102</v>
+      </c>
+      <c r="AR8">
+        <v>3</v>
+      </c>
+      <c r="AS8">
+        <v>22</v>
+      </c>
+      <c r="AT8">
+        <v>8</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>13</v>
+      </c>
+      <c r="AW8">
+        <v>5.3150000000000004</v>
+      </c>
+      <c r="AX8">
+        <v>104</v>
+      </c>
+      <c r="AY8">
+        <v>3</v>
+      </c>
+      <c r="AZ8">
+        <v>20</v>
+      </c>
+      <c r="BA8">
+        <v>7</v>
+      </c>
+      <c r="BB8">
+        <v>5</v>
+      </c>
+      <c r="BC8">
+        <v>13</v>
+      </c>
+      <c r="BD8">
+        <v>4.78</v>
+      </c>
+      <c r="BE8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <v>400</v>
+      </c>
+      <c r="F9">
+        <v>400</v>
+      </c>
+      <c r="G9">
+        <v>18.48</v>
+      </c>
+      <c r="H9">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="J9">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K9">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="L9">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="M9">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="N9">
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="O9">
+        <v>234</v>
+      </c>
+      <c r="P9">
+        <v>101989</v>
+      </c>
+      <c r="Q9">
+        <v>103363</v>
+      </c>
+      <c r="R9">
+        <v>102874</v>
+      </c>
+      <c r="S9">
+        <v>102439</v>
+      </c>
+      <c r="T9">
+        <v>103155</v>
+      </c>
+      <c r="U9">
+        <v>423.07499999999999</v>
+      </c>
+      <c r="V9">
+        <v>245</v>
+      </c>
+      <c r="W9">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="X9">
+        <v>1.74</v>
+      </c>
+      <c r="Y9">
+        <v>0.88</v>
+      </c>
+      <c r="Z9">
+        <v>0.38</v>
+      </c>
+      <c r="AA9">
+        <v>1.29</v>
+      </c>
+      <c r="AB9">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="AC9">
+        <v>211</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>77</v>
+      </c>
+      <c r="AK9">
+        <v>3</v>
+      </c>
+      <c r="AL9">
+        <v>8</v>
+      </c>
+      <c r="AM9">
+        <v>6</v>
+      </c>
+      <c r="AN9">
+        <v>5</v>
+      </c>
+      <c r="AO9">
+        <v>7</v>
+      </c>
+      <c r="AP9">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="AQ9">
+        <v>79</v>
+      </c>
+      <c r="AR9">
+        <v>4</v>
+      </c>
+      <c r="AS9">
+        <v>12</v>
+      </c>
+      <c r="AT9">
+        <v>9</v>
+      </c>
+      <c r="AU9">
+        <v>7</v>
+      </c>
+      <c r="AV9">
+        <v>10</v>
+      </c>
+      <c r="AW9">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="AX9">
+        <v>81</v>
+      </c>
+      <c r="AY9">
+        <v>4</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BA9">
+        <v>8</v>
+      </c>
+      <c r="BB9">
+        <v>7</v>
+      </c>
+      <c r="BC9">
+        <v>9</v>
+      </c>
+      <c r="BD9">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="BE9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AX11" s="1"/>
+    </row>
+    <row r="12" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AX12" s="1"/>
+    </row>
+    <row r="13" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AX13" s="1"/>
+    </row>
+    <row r="14" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AX14" s="1"/>
+    </row>
+    <row r="15" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AX15" s="1"/>
+    </row>
+    <row r="16" spans="1:57" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AX16" s="1"/>
+    </row>
+    <row r="17" spans="9:50" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AX17" s="1"/>
+    </row>
+    <row r="18" spans="9:50" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AQ18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
